--- a/experiments/capital/bert-base-cased_15/99/incorrect_predictions.xlsx
+++ b/experiments/capital/bert-base-cased_15/99/incorrect_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Account not logged in . Flight altitude and distance restricted to nnn and nnn . Check and log in .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Flight altitude and distance restricted to nnn and nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,96 +487,96 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Account not logged in . Flight altitude and distance restricted to nnn and nnn . Check and log in .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Flight altitude and distance restricted to nnn</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped . You can decelerate the descending speed and avoid obstacles using sticks .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped</t>
+          <t>Aircraft ActiveTrack available at max</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>When exceeding nnn,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Compass error , calibration required .</t>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>calibration required</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude: nnn .</t>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Temp Max Altitude: nnn</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,71 +612,71 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds .</t>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Aircraft in Attitude</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds .</t>
+          <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn</t>
+          <t>Aircraft is tilted</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Error: Course angle control error . Please ensure the propellers are installed on the correct motors .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Error: Course angle control error</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,46 +687,46 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Error: Course angle control error . Please ensure the propellers are installed on the correct motors .</t>
+          <t>Another aircraft is dangerously close , please descend to a safer altitude .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Course angle control error</t>
+          <t>Another aircraft is dangerously close</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,121 +737,121 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>High altitude . Aircraft braking distance increased and flight time decreased . Fly with caution .</t>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aircraft braking distance increased and flight time decreased</t>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>High altitude . Aircraft braking distance increased and flight time decreased . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>flight time decreased</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IMU warming up . Wait before taking off .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>IMU warming up</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>36-39</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IMU warming up . Wait before taking off .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>IMU warming</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>14-18</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Low power , please replace the battery .</t>
+          <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Low power</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -862,21 +862,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached . Adjust in Main Controller Settings if necessary .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -887,26 +887,226 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached . Adjust in Main Controller Settings if necessary .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>92</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0-13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>95</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gimbal Recenter .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Gimbal Recenter</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>123</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3-13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>126</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Return to Home failed</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3-6</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Panorama Captured Successfully .</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Panorama Captured Successfully</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Panorama Captured Successfully .</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Panorama Captured</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>147</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Not suitable for shooting a 4K video</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8-14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>157</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Take off and retry this function .</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Take off and retry this function</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Missing</t>
         </is>
       </c>
     </row>
